--- a/s_electric/se0005_dry220add2wire/se0005_dry220add2wire.xlsx
+++ b/s_electric/se0005_dry220add2wire/se0005_dry220add2wire.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\schemes\s_electric\se0005_dry220add2wire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\schemes\s_electric\se0005_dry220add2wire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F6DA4-572F-4F27-AEEF-748AF39FAF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="9" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="adjust" sheetId="6" r:id="rId9"/>
     <sheet name="install" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -547,12 +546,24 @@
   </si>
   <si>
     <t>клемма для перемычки от клеммы T2</t>
+  </si>
+  <si>
+    <t>Общемаш</t>
+  </si>
+  <si>
+    <t>ДПЗ-01А/220</t>
+  </si>
+  <si>
+    <t>КЭ</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +694,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,12 +738,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{20AA7729-258B-41FC-8E7E-D13670C2B469}"/>
-    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{8E89F8C6-5DD2-4FAA-B08E-31A50C9EDFA3}"/>
-    <cellStyle name="Обычный 3" xfId="3" xr:uid="{7FA9E0CB-F4A4-4094-A5E5-8CF49BB6BDC0}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,20 +1023,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29605B0B-04CA-4580-B6C7-F0FA52CD1746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="168.08984375" customWidth="1"/>
-    <col min="2" max="2" width="72.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>142</v>
       </c>
@@ -1033,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81473D52-F51C-4AC8-A68B-9877F875E9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1044,18 +1058,18 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="83.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1096,7 +1110,7 @@
         <v>0.56500000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1114,7 +1128,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1132,7 +1146,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
@@ -1153,7 +1167,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
@@ -1172,7 +1186,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -1199,65 +1213,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBAF01-7C78-423B-892B-26425A652887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="168.08984375" customWidth="1"/>
-    <col min="2" max="2" width="72.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="12" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B3E98C-D3D4-478C-A09C-5309B10332CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1297,20 +1311,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1342,7 +1356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1358,7 +1372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1366,7 +1380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1390,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1420,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1414,7 +1428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1422,7 +1436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1454,7 +1468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1462,7 +1476,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1478,7 +1492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
@@ -1494,7 +1508,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -1502,7 +1516,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1550,7 +1564,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -1596,22 +1610,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B078F4-D49D-4F19-A665-96622DF9767F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1667,7 +1681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -1681,7 +1695,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -1709,7 +1723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -1737,7 +1751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -1779,7 +1793,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -1793,7 +1807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -1849,7 +1863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1863,7 +1877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -1891,7 +1905,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -1912,26 +1926,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8712A5B4-7C08-48B7-A7B5-B16507D4DDCB}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
     <col min="10" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -1966,7 +1980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -1999,6 +2013,41 @@
       </c>
       <c r="K2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2007,23 +2056,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D760CD9-340C-4C3B-B255-A7A257DC5FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2054,22 +2102,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF351E-8FE8-49E5-83C0-FBAF576A7251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +2131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2094,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2105,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2116,7 +2164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2127,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2166,7 +2214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2191,7 +2239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2202,7 +2250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -2244,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598B97FB-FCE9-4304-A6F4-077936EA595C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2255,18 +2303,18 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2286,7 +2334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -2307,7 +2355,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2376,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2397,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
